--- a/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33FDD85-D8C7-4B71-85C2-E16431467D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F2FE4C-B9F1-4E5F-859A-49350177A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EE8F5B44-2A8F-4127-8806-58ED4C2A49C9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DBA2BE1D-F383-416E-82DF-B1F2DC09311E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,24 +68,153 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
@@ -134,33 +263,6 @@
     <t>24,8%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
     <t>77,54%</t>
   </si>
   <si>
@@ -188,106 +290,31 @@
     <t>81,57%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -339,33 +366,6 @@
   </si>
   <si>
     <t>23,72%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
   </si>
   <si>
     <t>78,43%</t>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20508C8B-3736-4489-A8B5-FD116F24C535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D22F79A-BABB-4A69-8681-F121691981A6}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1129,10 +1129,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2391</v>
+        <v>985</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -1144,31 +1144,31 @@
         <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>2037</v>
+        <v>813</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>4428</v>
+        <v>1798</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>22</v>
@@ -1180,49 +1180,49 @@
         <v>12</v>
       </c>
       <c r="C10" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>72058</v>
+        <v>1012</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2020</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="7">
-        <v>65</v>
-      </c>
-      <c r="I10" s="7">
-        <v>58599</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3032</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="7">
-        <v>142</v>
-      </c>
-      <c r="N10" s="7">
-        <v>130657</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1231,49 +1231,49 @@
         <v>13</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>3987</v>
+        <v>9482</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12810</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2389</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>25</v>
+      </c>
+      <c r="N11" s="7">
+        <v>22292</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6377</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1282,49 +1282,49 @@
         <v>14</v>
       </c>
       <c r="C12" s="7">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>270802</v>
+        <v>56119</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>65</v>
+      </c>
+      <c r="I12" s="7">
+        <v>46810</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="7">
-        <v>323</v>
-      </c>
-      <c r="I12" s="7">
-        <v>235792</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>132</v>
+      </c>
+      <c r="N12" s="7">
+        <v>102929</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="7">
-        <v>646</v>
-      </c>
-      <c r="N12" s="7">
-        <v>506593</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,102 +1333,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>349238</v>
+        <v>67597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="I13" s="7">
-        <v>298817</v>
+        <v>62453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>802</v>
+        <v>162</v>
       </c>
       <c r="N13" s="7">
-        <v>648055</v>
+        <v>130050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>1012</v>
+        <v>3987</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2389</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2020</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6377</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3032</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,49 +1437,49 @@
         <v>12</v>
       </c>
       <c r="C15" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>9482</v>
+        <v>2391</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2037</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="7">
-        <v>14</v>
-      </c>
-      <c r="I15" s="7">
-        <v>12810</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>6</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4428</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="M15" s="7">
-        <v>25</v>
-      </c>
-      <c r="N15" s="7">
-        <v>22292</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,46 +1488,46 @@
         <v>13</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>985</v>
+        <v>72058</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="7">
+        <v>65</v>
+      </c>
+      <c r="I16" s="7">
+        <v>58599</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>813</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>142</v>
+      </c>
+      <c r="N16" s="7">
+        <v>130657</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1798</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>74</v>
@@ -1539,10 +1539,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="7">
-        <v>67</v>
+        <v>323</v>
       </c>
       <c r="D17" s="7">
-        <v>56119</v>
+        <v>270802</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
@@ -1554,10 +1554,10 @@
         <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="I17" s="7">
-        <v>46810</v>
+        <v>235792</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>78</v>
@@ -1569,10 +1569,10 @@
         <v>80</v>
       </c>
       <c r="M17" s="7">
-        <v>132</v>
+        <v>646</v>
       </c>
       <c r="N17" s="7">
-        <v>102929</v>
+        <v>506593</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>81</v>
@@ -1590,49 +1590,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="D18" s="7">
-        <v>67597</v>
+        <v>349238</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="I18" s="7">
-        <v>62453</v>
+        <v>298817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="N18" s="7">
-        <v>130050</v>
+        <v>648055</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>3403</v>
+        <v>4973</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>84</v>
@@ -1658,10 +1658,10 @@
         <v>86</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>4057</v>
+        <v>3202</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>87</v>
@@ -1673,10 +1673,10 @@
         <v>89</v>
       </c>
       <c r="M19" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>7460</v>
+        <v>8174</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>90</v>
@@ -1685,7 +1685,7 @@
         <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,49 +1694,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>81539</v>
+        <v>3403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>71410</v>
+        <v>4057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>152949</v>
+        <v>7460</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,10 +1745,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="7">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7">
-        <v>4973</v>
+        <v>81539</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>101</v>
@@ -1760,10 +1760,10 @@
         <v>103</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>3202</v>
+        <v>71410</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>104</v>
@@ -1775,10 +1775,10 @@
         <v>106</v>
       </c>
       <c r="M21" s="7">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="N21" s="7">
-        <v>8174</v>
+        <v>152949</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>107</v>
@@ -1853,13 +1853,13 @@
         <v>416835</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>476</v>
@@ -1868,13 +1868,13 @@
         <v>361271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>964</v>
@@ -1883,13 +1883,13 @@
         <v>778106</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F2FE4C-B9F1-4E5F-859A-49350177A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC309DE-DB96-47B9-AFF2-7518023C525D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DBA2BE1D-F383-416E-82DF-B1F2DC09311E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA97724D-5CF0-4ACB-8A2C-28B46F1CC5AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="118">
   <si>
     <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -65,334 +65,331 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -403,7 +400,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -499,39 +496,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -583,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -694,13 +691,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -709,6 +699,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -773,19 +770,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D22F79A-BABB-4A69-8681-F121691981A6}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D3556-4CFC-4C0E-8C2F-83FA79942BBF}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1129,49 +1146,43 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1180,49 +1191,43 @@
         <v>12</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1231,49 +1236,43 @@
         <v>13</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
-      </c>
-      <c r="N11" s="7">
-        <v>22292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1282,49 +1281,43 @@
         <v>14</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
-      </c>
-      <c r="D12" s="7">
-        <v>56119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
-      </c>
-      <c r="I12" s="7">
-        <v>46810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>132</v>
-      </c>
-      <c r="N12" s="7">
-        <v>102929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,102 +1326,96 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>80</v>
-      </c>
-      <c r="D13" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>82</v>
-      </c>
-      <c r="I13" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>162</v>
-      </c>
-      <c r="N13" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="D14" s="7">
-        <v>3987</v>
+        <v>129164</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="I14" s="7">
-        <v>2389</v>
+        <v>99525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>294</v>
       </c>
       <c r="N14" s="7">
-        <v>6377</v>
+        <v>228688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,49 +1424,49 @@
         <v>12</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>2391</v>
+        <v>29963</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I15" s="7">
-        <v>2037</v>
+        <v>28485</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N15" s="7">
-        <v>4428</v>
+        <v>58448</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,49 +1475,49 @@
         <v>13</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>72058</v>
+        <v>2187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>58599</v>
+        <v>3320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>130657</v>
+        <v>5507</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,49 +1526,49 @@
         <v>14</v>
       </c>
       <c r="C17" s="7">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>270802</v>
+        <v>2325</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>235792</v>
+        <v>2476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="M17" s="7">
-        <v>646</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>506593</v>
+        <v>4801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,102 +1577,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="D18" s="7">
-        <v>349238</v>
+        <v>163639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="I18" s="7">
-        <v>298817</v>
+        <v>133806</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M18" s="7">
-        <v>802</v>
+        <v>372</v>
       </c>
       <c r="N18" s="7">
-        <v>648055</v>
+        <v>297444</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="D19" s="7">
-        <v>4973</v>
+        <v>197756</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="I19" s="7">
-        <v>3202</v>
+        <v>183078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>484</v>
       </c>
       <c r="N19" s="7">
-        <v>8174</v>
+        <v>380834</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,49 +1681,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D20" s="7">
-        <v>3403</v>
+        <v>51576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>4057</v>
+        <v>42925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="N20" s="7">
-        <v>7460</v>
+        <v>94501</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,49 +1732,49 @@
         <v>13</v>
       </c>
       <c r="C21" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>81539</v>
+        <v>1216</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>71410</v>
+        <v>737</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="M21" s="7">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>152949</v>
+        <v>1953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,49 +1783,49 @@
         <v>14</v>
       </c>
       <c r="C22" s="7">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>326920</v>
+        <v>2648</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7">
-        <v>388</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>282602</v>
+        <v>726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
-        <v>778</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>609522</v>
+        <v>3374</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,55 +1834,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>293</v>
+      </c>
+      <c r="D23" s="7">
+        <v>253196</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="7">
+        <v>299</v>
+      </c>
+      <c r="I23" s="7">
+        <v>227465</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="7">
+        <v>592</v>
+      </c>
+      <c r="N23" s="7">
+        <v>480661</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>390</v>
+      </c>
+      <c r="D24" s="7">
+        <v>326920</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="7">
+        <v>388</v>
+      </c>
+      <c r="I24" s="7">
+        <v>282602</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="7">
+        <v>778</v>
+      </c>
+      <c r="N24" s="7">
+        <v>609522</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7">
+        <v>81539</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="7">
+        <v>79</v>
+      </c>
+      <c r="I25" s="7">
+        <v>71410</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" s="7">
+        <v>167</v>
+      </c>
+      <c r="N25" s="7">
+        <v>152949</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3403</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4057</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="7">
+        <v>9</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7460</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4973</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3202</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7">
+        <v>8174</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>488</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>416835</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="7">
         <v>476</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>361271</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="7">
         <v>964</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>778106</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>48</v>
+      <c r="O28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC309DE-DB96-47B9-AFF2-7518023C525D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{571564D9-5C31-49AB-8732-0298185BBF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA97724D-5CF0-4ACB-8A2C-28B46F1CC5AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6874B813-EAA0-43BE-BD50-A91170C11543}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="117">
   <si>
     <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -92,55 +92,55 @@
     <t>78,93%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>19,65%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -149,49 +149,49 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -203,148 +203,142 @@
     <t>78,1%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>15,35%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -353,40 +347,43 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,03%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -801,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D3556-4CFC-4C0E-8C2F-83FA79942BBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A85C3B-508F-4CC7-8C40-B33F7B2D69FF}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1753,13 +1750,13 @@
         <v>737</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -1768,13 +1765,13 @@
         <v>1953</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1786,13 @@
         <v>2648</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1804,13 +1801,13 @@
         <v>726</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -1819,13 +1816,13 @@
         <v>3374</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,13 +1890,13 @@
         <v>326920</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H24" s="7">
         <v>388</v>
@@ -1908,13 +1905,13 @@
         <v>282602</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M24" s="7">
         <v>778</v>
@@ -1923,13 +1920,13 @@
         <v>609522</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1941,13 @@
         <v>81539</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -1959,13 +1956,13 @@
         <v>71410</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>167</v>
@@ -1977,10 +1974,10 @@
         <v>69</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1992,13 @@
         <v>3403</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2010,13 +2007,13 @@
         <v>4057</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2025,13 +2022,13 @@
         <v>7460</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2043,13 @@
         <v>4973</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -2061,13 +2058,13 @@
         <v>3202</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M27" s="7">
         <v>10</v>
@@ -2076,13 +2073,13 @@
         <v>8174</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,7 +2135,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A23_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{571564D9-5C31-49AB-8732-0298185BBF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F137D0-4D15-4692-8644-153011B8676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6874B813-EAA0-43BE-BD50-A91170C11543}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{24AF98C3-A6F8-4573-A7DA-D0B3402046E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="117">
-  <si>
-    <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
+  <si>
+    <t>Menores según frecuencia de que sus padres le hayan tratado de forma justa en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,6 +80,9 @@
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
@@ -89,301 +92,400 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -798,8 +900,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A85C3B-508F-4CC7-8C40-B33F7B2D69FF}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED39EBC-232E-44D3-8A72-7B366841222E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1093,7 +1195,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1136,11 +1238,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1183,9 +1283,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1230,7 +1332,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1275,7 +1377,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1320,7 +1422,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1363,792 +1465,1035 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>156</v>
-      </c>
-      <c r="D14" s="7">
-        <v>129164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>138</v>
-      </c>
-      <c r="I14" s="7">
-        <v>99525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>294</v>
-      </c>
-      <c r="N14" s="7">
-        <v>228688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7">
-        <v>29963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5559</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5497</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11056</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>32</v>
-      </c>
-      <c r="I15" s="7">
-        <v>28485</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="7">
-        <v>66</v>
-      </c>
-      <c r="N15" s="7">
-        <v>58448</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2187</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3320</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5507</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2325</v>
+        <v>1889</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>2476</v>
+        <v>1618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>4801</v>
+        <v>3508</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>163639</v>
+        <v>7624</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="7">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6222</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="7">
+        <v>19</v>
+      </c>
+      <c r="N18" s="7">
+        <v>13846</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>24972</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7">
+        <v>26576</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="7">
+        <v>62</v>
+      </c>
+      <c r="N19" s="7">
+        <v>51548</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="7">
-        <v>177</v>
-      </c>
-      <c r="I18" s="7">
-        <v>133806</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="7">
-        <v>372</v>
-      </c>
-      <c r="N18" s="7">
-        <v>297444</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>234</v>
-      </c>
-      <c r="D19" s="7">
-        <v>197756</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="7">
-        <v>250</v>
-      </c>
-      <c r="I19" s="7">
-        <v>183078</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="7">
-        <v>484</v>
-      </c>
-      <c r="N19" s="7">
-        <v>380834</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>126</v>
+      </c>
+      <c r="D20" s="7">
+        <v>91242</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="7">
-        <v>51576</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="I20" s="7">
-        <v>42925</v>
+        <v>131415</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="N20" s="7">
-        <v>94501</v>
+        <v>222657</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>1216</v>
+        <v>131287</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
+        <v>195</v>
+      </c>
+      <c r="I21" s="7">
+        <v>171327</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="7">
+        <v>372</v>
+      </c>
+      <c r="N21" s="7">
+        <v>302614</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4044</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5472</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="7">
+        <v>12</v>
+      </c>
+      <c r="N22" s="7">
+        <v>9516</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>737</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1953</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2648</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>726</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="7">
-        <v>4</v>
-      </c>
-      <c r="N22" s="7">
-        <v>3374</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>253196</v>
+        <v>4066</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
-        <v>299</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>227465</v>
+        <v>8334</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>592</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>480661</v>
+        <v>12400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>390</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>326920</v>
+        <v>10453</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="7">
+        <v>23</v>
+      </c>
+      <c r="I24" s="7">
+        <v>23141</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="7">
-        <v>388</v>
-      </c>
-      <c r="I24" s="7">
-        <v>282602</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7">
+        <v>33594</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="M24" s="7">
-        <v>778</v>
-      </c>
-      <c r="N24" s="7">
-        <v>609522</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7">
-        <v>81539</v>
+        <v>46780</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="7">
+        <v>75</v>
+      </c>
+      <c r="I25" s="7">
+        <v>66723</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="7">
-        <v>79</v>
-      </c>
-      <c r="I25" s="7">
-        <v>71410</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>139</v>
+      </c>
+      <c r="N25" s="7">
+        <v>113503</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="7">
-        <v>167</v>
-      </c>
-      <c r="N25" s="7">
-        <v>152949</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="D26" s="7">
-        <v>3403</v>
+        <v>171971</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>183</v>
+      </c>
+      <c r="I26" s="7">
+        <v>164309</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4057</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>391</v>
+      </c>
+      <c r="N26" s="7">
+        <v>336280</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="7">
-        <v>9</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7460</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>297</v>
+      </c>
+      <c r="D27" s="7">
+        <v>237313</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>293</v>
+      </c>
+      <c r="I27" s="7">
+        <v>267979</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>590</v>
+      </c>
+      <c r="N27" s="7">
+        <v>505292</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9603</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
+        <v>13</v>
+      </c>
+      <c r="I28" s="7">
+        <v>10969</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="7">
+        <v>25</v>
+      </c>
+      <c r="N28" s="7">
+        <v>20571</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>9</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5955</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9953</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>16</v>
+      </c>
+      <c r="N29" s="7">
+        <v>15908</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18077</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="7">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7">
+        <v>29362</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M30" s="7">
+        <v>56</v>
+      </c>
+      <c r="N30" s="7">
+        <v>47440</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="7">
-        <v>6</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4973</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="7">
-        <v>4</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3202</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" s="7">
-        <v>10</v>
-      </c>
-      <c r="N27" s="7">
-        <v>8174</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
+      <c r="C31" s="7">
+        <v>94</v>
+      </c>
+      <c r="D31" s="7">
+        <v>71752</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="7">
+        <v>107</v>
+      </c>
+      <c r="I31" s="7">
+        <v>93299</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" s="7">
+        <v>201</v>
+      </c>
+      <c r="N31" s="7">
+        <v>165051</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>334</v>
+      </c>
+      <c r="D32" s="7">
+        <v>263214</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="7">
+        <v>330</v>
+      </c>
+      <c r="I32" s="7">
+        <v>295723</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="7">
+        <v>664</v>
+      </c>
+      <c r="N32" s="7">
+        <v>558937</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C33" s="7">
+        <v>474</v>
+      </c>
+      <c r="D33" s="7">
+        <v>368601</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>488</v>
       </c>
-      <c r="D28" s="7">
-        <v>416835</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="7">
-        <v>476</v>
-      </c>
-      <c r="I28" s="7">
-        <v>361271</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="7">
-        <v>964</v>
-      </c>
-      <c r="N28" s="7">
-        <v>778106</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>116</v>
+      <c r="I33" s="7">
+        <v>439305</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
+        <v>962</v>
+      </c>
+      <c r="N33" s="7">
+        <v>807906</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
